--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H200_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5060975609756098</v>
+        <v>0.4847560975609756</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09821687107831016</v>
+        <v>0.09900228436959638</v>
       </c>
       <c r="J2" t="n">
-        <v>1248.417778108158</v>
+        <v>1328.847803225804</v>
       </c>
       <c r="K2" t="n">
-        <v>1863289.607792029</v>
+        <v>2445863.217916924</v>
       </c>
       <c r="L2" t="n">
-        <v>1365.023665652735</v>
+        <v>1563.925579404891</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6485074607910365</v>
+        <v>0.5386102786017463</v>
       </c>
     </row>
   </sheetData>
